--- a/Hojas de Ruta/Transmisiones/Ejes/Kessler 101.1643.3H/OT 26266 Evaluacion.xlsx
+++ b/Hojas de Ruta/Transmisiones/Ejes/Kessler 101.1643.3H/OT 26266 Evaluacion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Item</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Informe Técnico</t>
+  </si>
+  <si>
+    <t>Cargos</t>
   </si>
 </sst>
 </file>
@@ -88,10 +91,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,9 +415,10 @@
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,8 +437,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -448,7 +458,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -465,7 +475,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -481,8 +491,11 @@
       <c r="F4" s="2">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -498,8 +511,11 @@
       <c r="F5" s="2">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>0.13541666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -515,8 +531,11 @@
       <c r="F6" s="2">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -532,8 +551,26 @@
       <c r="F7" s="2">
         <v>0.16666666666666666</v>
       </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>SUM(F2:F7)</f>
+        <v>1.03125</v>
+      </c>
+      <c r="G8">
+        <f>SUM(G2:G7)</f>
+        <v>0.77083333333333326</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G6:G7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>